--- a/media/excel/comp_main-one.xlsx
+++ b/media/excel/comp_main-one.xlsx
@@ -38,13 +38,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
+        <fgColor rgb="0000FFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">

--- a/media/excel/comp_main-one.xlsx
+++ b/media/excel/comp_main-one.xlsx
@@ -37,12 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000FFFF"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
@@ -466,317 +466,445 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>*2114.45</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" s="2" t="n">
+        <v>2114.45</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2287.63</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>20332.81</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.990438722</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>308964</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>19428.83</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.977743973</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>2291.19</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>19928.73</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.982360245</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>*2287.63</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>20320.16</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.988213019</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>2305.83</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>*20332.81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>*0.990438722</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2083.02</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>20148.38</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.992004957</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>2064.94</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>*308964.0</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>20089.95</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.993733992</v>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>2738.17</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>20173.97</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>*0.994147744</t>
-        </is>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.9941477440000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>2306.2</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>20176.48</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0.995549595</v>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>2200.49</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>*20237.28</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0.994890127</v>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>20237.28</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>*2540.89</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>20427.22</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.994065793</v>
+      <c r="A11" s="2" t="n">
+        <v>2540.89</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>2250.71</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>21367.38</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0.992252257</v>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>2032.16</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>21499.62</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0.995549595</v>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>*2136.69</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>21514.27</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0.993159025</v>
+      <c r="A14" s="2" t="n">
+        <v>2136.69</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>2065.89</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>21906.69</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0.9928292909999999</v>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>2031.57</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>21760.48</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>0.992334691</v>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>2127.52</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>21762.15</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>0.9937360589999999</v>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>2057.64</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>21542.5</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0.995796895</v>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>2349.7</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>21268.77</v>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>*0.995467161</t>
-        </is>
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.995467161</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>1918.52</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>21049.36</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>0.9937360589999999</v>
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>2150.62</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>20765.31</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>0.992420873</v>
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>1899.18</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>308964</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>20494.83</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0.994398759</v>
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
   </sheetData>
